--- a/src/weeks.xlsx
+++ b/src/weeks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svukelic\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7CB6A-3D89-4278-AC13-DF904F44DA1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C0333-A1B2-419A-8F7C-0B1C0FDB0473}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AE07AEB-6D22-4559-A521-9A1D416FA16F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AE07AEB-6D22-4559-A521-9A1D416FA16F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
   <si>
     <t>RACE</t>
   </si>
@@ -160,13 +160,16 @@
   </si>
   <si>
     <t>38km</t>
+  </si>
+  <si>
+    <t>6:00;5:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +185,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +212,18 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,12 +246,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,9 +280,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63545A39-E3A1-46CE-814E-960B7A62E4E3}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,1557 +625,1573 @@
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="8">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H1" s="8">
+        <v>0.24305555555555555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>43864</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>43865</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="4">
         <v>43866</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>43867</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="4">
         <v>43868</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="4">
         <v>43869</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H3" s="4">
         <v>43870</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <v>43871</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>43872</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="4">
         <v>43873</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <v>43874</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <v>43875</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="4">
         <v>43876</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="4">
         <v>43877</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
         <v>43878</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>43879</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>43880</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>43881</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>43882</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>43883</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>43884</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>43885</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>43886</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>43887</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>43888</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>43889</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>43890</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>43891</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>43892</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>43893</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>43894</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>43895</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>43896</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>43897</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>43898</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>43899</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>43900</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>43901</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>43902</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>43903</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>43904</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>43905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4">
         <v>43906</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>43907</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>43908</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>43909</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>43910</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>43911</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>43912</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>43913</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>43914</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>43915</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>43916</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>43917</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>43918</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>43919</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>43920</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>43921</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>43922</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>43923</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>43924</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>43925</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>43926</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>43927</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>43928</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>43929</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>43930</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>43931</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>43932</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>43933</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>43934</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>43935</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>43936</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>43937</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>43938</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>43939</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>43940</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>12</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>43941</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>43942</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>43943</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>43944</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>43945</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="4">
         <v>43946</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <v>43947</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>13</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>43948</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>43949</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>43950</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>43951</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>43952</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>43953</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>43954</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="4" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>14</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4">
         <v>43955</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>43956</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="4">
         <v>43957</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>43958</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>43959</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>43960</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>43961</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>15</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>43962</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>43963</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <v>43964</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>43965</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>43966</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <v>43967</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <v>43968</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>16</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <v>43969</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="4">
         <v>43970</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="4">
         <v>43971</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>43972</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>43973</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="4">
         <v>43974</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="4">
         <v>43975</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>17</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <v>43976</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>43977</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="4">
         <v>43978</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>43979</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>43980</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <v>43981</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <v>43982</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>18</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4">
         <v>43983</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="4">
         <v>43984</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="4">
         <v>43985</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>43986</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>43987</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <v>43988</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="4">
         <v>43989</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="4" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>19</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>43990</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C39" s="4">
         <v>43991</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>43992</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>43993</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F39" s="4">
         <v>43994</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="4">
         <v>43995</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H39" s="4">
         <v>43996</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>20</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>43997</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="4">
         <v>43998</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D41" s="4">
         <v>43999</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>44000</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>44001</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>44002</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>44003</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>21</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>44004</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C43" s="4">
         <v>44005</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>44006</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>44007</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>44008</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>44009</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>44010</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>22</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>44011</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C45" s="4">
         <v>44012</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D45" s="4">
         <v>44013</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>44014</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="4">
         <v>44015</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>44016</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H45" s="4">
         <v>44017</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="4" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>23</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <v>44018</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C47" s="4">
         <v>44019</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D47" s="4">
         <v>44020</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>44021</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>44022</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G47" s="4">
         <v>44023</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H47" s="4">
         <v>44024</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>24</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4">
         <v>44025</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C49" s="4">
         <v>44026</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D49" s="4">
         <v>44027</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>44028</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F49" s="4">
         <v>44029</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G49" s="4">
         <v>44030</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H49" s="4">
         <v>44031</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="4" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>25</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>44032</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C51" s="4">
         <v>44033</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51" s="4">
         <v>44034</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <v>44035</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F51" s="4">
         <v>44036</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G51" s="4">
         <v>44037</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H51" s="4">
         <v>44038</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="4" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>26</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B53" s="4">
         <v>44039</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C53" s="4">
         <v>44040</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D53" s="4">
         <v>44041</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>44042</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>44043</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G53" s="4">
         <v>44044</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H53" s="4">
         <v>44045</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>27</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>44046</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C55" s="4">
         <v>44047</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D55" s="4">
         <v>44048</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>44049</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>44050</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>44051</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <v>44052</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="4" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>28</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B57" s="4">
         <v>44053</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C57" s="4">
         <v>44054</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D57" s="4">
         <v>44055</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>44056</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <v>44057</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <v>44058</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H57" s="4">
         <v>44059</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="4" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>29</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B59" s="4">
         <v>44060</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C59" s="4">
         <v>44061</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D59" s="4">
         <v>44062</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>44063</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="4">
         <v>44064</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G59" s="4">
         <v>44065</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H59" s="4">
         <v>44066</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="4" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>30</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>44067</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>44068</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D61" s="4">
         <v>44069</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>44070</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>44071</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G61" s="4">
         <v>44072</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H61" s="4">
         <v>44073</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="4" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>31</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B63" s="4">
         <v>44074</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C63" s="4">
         <v>44075</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D63" s="4">
         <v>44076</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <v>44077</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F63" s="4">
         <v>44078</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G63" s="4">
         <v>44079</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H63" s="4">
         <v>44080</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="4" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>32</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B65" s="4">
         <v>44081</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <v>44082</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D65" s="4">
         <v>44083</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <v>44084</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F65" s="4">
         <v>44085</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G65" s="4">
         <v>44086</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H65" s="4">
         <v>44087</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="4" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>33</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B67" s="4">
         <v>44088</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <v>44089</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D67" s="4">
         <v>44090</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>44091</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>44092</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G67" s="4">
         <v>44093</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H67" s="4">
         <v>44094</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="4" t="s">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>34</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B69" s="4">
         <v>44095</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <v>44096</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D69" s="4">
         <v>44097</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>44098</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
         <v>44099</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="4" t="s">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
@@ -2136,6 +2213,9 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
